--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,195 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh603278</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>本钢板材</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sz000761</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农尚环境</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz300536</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -574,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -763,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -911,7 +1101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1100,7 +1290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1330,7 +1520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1642,7 +1832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,15 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +434,425 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>立中集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sz300428</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金诚信</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh603979</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>深圳新星</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh603978</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh601899</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sh603278</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sh601969</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sh603316</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:30</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -616,7 +1036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -764,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -953,7 +1373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1101,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1290,7 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1520,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1832,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2019,275 +2439,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>交易数量</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>深圳新星</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sh603978</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>17.62</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>紫金矿业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sh601899</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大业股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sh603278</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:30</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海南矿业</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sh601969</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:30</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诚邦股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sh603316</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:30</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>8700</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,17 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +494,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>首创奥莱</t>
+          <t>森特股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -515,7 +516,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -527,12 +528,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>物美消费</t>
+          <t>西藏矿业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -549,7 +550,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -559,6 +594,318 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh600010</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh601969</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz002487</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sh603637</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>文科园林</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sz002775</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:30</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sh603316</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:30</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -747,7 +1094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1024,6 +1371,135 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>物美消费</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1166,7 +1642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,7 +1831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1503,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1840,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2029,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2257,316 +2733,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>交易数量</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sh600010</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-01 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>42400</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海南矿业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sh601969</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-01 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大金重工</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sz002487</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>31.93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-01 09:30</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>镇海股份</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sh603637</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-01 09:30</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>文科园林</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sz002775</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-01 09:30</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诚邦股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sh603316</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-01 09:30</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>8700</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,44 +458,34 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>市场</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>持仓量</t>
+          <t>时间</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
+          <t>交易数量</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -505,132 +495,108 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>常宝股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sz002478</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>博威合金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19300</v>
-      </c>
-      <c r="I2" t="n">
-        <v>108852</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>有色金属</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>武进不锈</t>
+          <t>中钨高新</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sh603878</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>sz000657</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18900</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:30</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>108297</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
+        <v>5800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>有色金属</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鸿路钢构</t>
+          <t>博威合金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sz002541</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>sh601137</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6000</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:30</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>112080</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
+        <v>4600</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -654,124 +620,24 @@
           <t>sz000603</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>5900</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111805</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中钨高新</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sz000657</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5800</v>
-      </c>
-      <c r="I6" t="n">
-        <v>115594</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博威合金</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sh601137</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="G7" t="n">
-        <v>24.94</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4600</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114724</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -880,20 +746,20 @@
         <v>25.29</v>
       </c>
       <c r="G2" t="n">
-        <v>24.94</v>
+        <v>25.19</v>
       </c>
       <c r="H2" t="n">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>114724</v>
+        <v>114448</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -927,20 +793,20 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>19.93</v>
+        <v>19.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>115594</v>
+        <v>113912</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -974,20 +840,20 @@
         <v>19.6</v>
       </c>
       <c r="G4" t="n">
-        <v>18.95</v>
+        <v>19.54</v>
       </c>
       <c r="H4" t="n">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>111805</v>
+        <v>115581</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -1097,20 +963,20 @@
         <v>5.68</v>
       </c>
       <c r="G2" t="n">
-        <v>5.73</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
         <v>18900</v>
       </c>
       <c r="I2" t="n">
-        <v>108297</v>
+        <v>117180</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -1144,20 +1010,20 @@
         <v>17.9</v>
       </c>
       <c r="G3" t="n">
-        <v>18.68</v>
+        <v>18.78</v>
       </c>
       <c r="H3" t="n">
         <v>6000</v>
       </c>
       <c r="I3" t="n">
-        <v>112080</v>
+        <v>112680</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -1191,20 +1057,20 @@
         <v>5.57</v>
       </c>
       <c r="G4" t="n">
-        <v>5.64</v>
+        <v>5.69</v>
       </c>
       <c r="H4" t="n">
         <v>19300</v>
       </c>
       <c r="I4" t="n">
-        <v>108852</v>
+        <v>109817</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,34 +458,44 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>最新价</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>持仓量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>新比例%</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>交易数量</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,67 +505,85 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博威合金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+          <t>常宝股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sz002478</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19300</v>
+      </c>
+      <c r="I2" t="n">
+        <v>109624</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中钨高新</t>
+          <t>武进不锈</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sz000657</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.64</v>
+          <t>sh603878</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="F3" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18900</v>
+      </c>
+      <c r="I3" t="n">
+        <v>120582</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>5800</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -566,78 +594,184 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博威合金</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sh601137</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>24.88</v>
+          <t>sz002379</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
       </c>
       <c r="F4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>115849.99</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>4600</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鸿路钢构</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sz002541</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>110160</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>有色金属</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>盛达资源</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sz000603</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sz000426</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>115650</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>厦门钨业</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sh600549</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>5900</v>
+      <c r="F7" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I7" t="n">
+        <v>112998</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -729,12 +863,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博威合金</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sh601137</t>
+          <t>sz000426</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -743,23 +877,23 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25.29</v>
+        <v>23.11</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19</v>
+        <v>23.13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I2" t="n">
-        <v>114448</v>
+        <v>115650</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -776,12 +910,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中钨高新</t>
+          <t>厦门钨业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sz000657</t>
+          <t>sh600549</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -790,23 +924,23 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>19.3</v>
+        <v>30.54</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="I3" t="n">
-        <v>113912</v>
+        <v>112998</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -823,12 +957,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>盛达资源</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sz000603</t>
+          <t>sz002379</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -837,23 +971,23 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>19.6</v>
+        <v>16.35</v>
       </c>
       <c r="G4" t="n">
-        <v>19.54</v>
+        <v>16.55</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I4" t="n">
-        <v>115581</v>
+        <v>115849.99</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -963,20 +1097,20 @@
         <v>5.68</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>6.38</v>
       </c>
       <c r="H2" t="n">
         <v>18900</v>
       </c>
       <c r="I2" t="n">
-        <v>117180</v>
+        <v>120582</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -1010,20 +1144,20 @@
         <v>17.9</v>
       </c>
       <c r="G3" t="n">
-        <v>18.78</v>
+        <v>18.36</v>
       </c>
       <c r="H3" t="n">
         <v>6000</v>
       </c>
       <c r="I3" t="n">
-        <v>112680</v>
+        <v>110160</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -1057,20 +1191,20 @@
         <v>5.57</v>
       </c>
       <c r="G4" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="H4" t="n">
         <v>19300</v>
       </c>
       <c r="I4" t="n">
-        <v>109817</v>
+        <v>109624</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
@@ -522,20 +522,20 @@
         <v>5.57</v>
       </c>
       <c r="G2" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="H2" t="n">
-        <v>19300</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109624</v>
+        <v>109817</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -569,20 +569,20 @@
         <v>5.68</v>
       </c>
       <c r="G3" t="n">
-        <v>6.38</v>
+        <v>7.05</v>
       </c>
       <c r="H3" t="n">
         <v>18900</v>
       </c>
       <c r="I3" t="n">
-        <v>120582</v>
+        <v>133245</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -616,20 +616,20 @@
         <v>16.35</v>
       </c>
       <c r="G4" t="n">
-        <v>16.55</v>
+        <v>17.24</v>
       </c>
       <c r="H4" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115849.99</v>
+        <v>116900.01</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -663,20 +663,20 @@
         <v>17.9</v>
       </c>
       <c r="G5" t="n">
-        <v>18.36</v>
+        <v>18.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>110160</v>
+        <v>110520</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -710,20 +710,20 @@
         <v>23.11</v>
       </c>
       <c r="G6" t="n">
-        <v>23.13</v>
+        <v>23.69</v>
       </c>
       <c r="H6" t="n">
         <v>5000</v>
       </c>
       <c r="I6" t="n">
-        <v>115650</v>
+        <v>118450</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -757,20 +757,20 @@
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>30.54</v>
+        <v>31.44</v>
       </c>
       <c r="H7" t="n">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112998</v>
+        <v>114145</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -880,20 +880,20 @@
         <v>23.11</v>
       </c>
       <c r="G2" t="n">
-        <v>23.13</v>
+        <v>23.69</v>
       </c>
       <c r="H2" t="n">
         <v>5000</v>
       </c>
       <c r="I2" t="n">
-        <v>115650</v>
+        <v>118450</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -927,20 +927,20 @@
         <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>30.54</v>
+        <v>31.44</v>
       </c>
       <c r="H3" t="n">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112998</v>
+        <v>114145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -974,20 +974,20 @@
         <v>16.35</v>
       </c>
       <c r="G4" t="n">
-        <v>16.55</v>
+        <v>17.24</v>
       </c>
       <c r="H4" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115849.99</v>
+        <v>116900.01</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -1097,20 +1097,20 @@
         <v>5.68</v>
       </c>
       <c r="G2" t="n">
-        <v>6.38</v>
+        <v>7.05</v>
       </c>
       <c r="H2" t="n">
         <v>18900</v>
       </c>
       <c r="I2" t="n">
-        <v>120582</v>
+        <v>133245</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -1144,20 +1144,20 @@
         <v>17.9</v>
       </c>
       <c r="G3" t="n">
-        <v>18.36</v>
+        <v>18.5</v>
       </c>
       <c r="H3" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>110160</v>
+        <v>110520</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -1191,20 +1191,20 @@
         <v>5.57</v>
       </c>
       <c r="G4" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="H4" t="n">
-        <v>19300</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>109624</v>
+        <v>109817</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,35 +458,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>市场</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>成本价</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>持仓量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>市值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>时间</t>
         </is>
@@ -495,148 +480,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>常宝股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sz002478</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>宏创控股</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>109817</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>武进不锈</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sh603878</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>常宝股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18900</v>
-      </c>
-      <c r="I3" t="n">
-        <v>133245</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宏创控股</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sz002379</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>鸿路钢构</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>116900.01</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -646,44 +592,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鸿路钢构</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sz002541</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>八一钢铁</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>110520</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -693,84 +626,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业银锡</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sz000426</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I6" t="n">
-        <v>118450</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>厦门钨业</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sh600549</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>31</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -880,20 +753,20 @@
         <v>23.11</v>
       </c>
       <c r="G2" t="n">
-        <v>23.69</v>
+        <v>24.34</v>
       </c>
       <c r="H2" t="n">
         <v>5000</v>
       </c>
       <c r="I2" t="n">
-        <v>118450</v>
+        <v>121700</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -910,37 +783,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>厦门钨业</t>
+          <t>宜安科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sh600549</t>
+          <t>sz300328</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>18.31</v>
       </c>
       <c r="G3" t="n">
-        <v>31.44</v>
+        <v>18.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="I3" t="n">
-        <v>114145</v>
+        <v>114030</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -957,12 +830,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>江西铜业</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sz002379</t>
+          <t>sh600362</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -971,23 +844,23 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>16.35</v>
+        <v>29.48</v>
       </c>
       <c r="G4" t="n">
-        <v>17.24</v>
+        <v>30.16</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="I4" t="n">
-        <v>116900.01</v>
+        <v>117624</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -1002,7 +875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,12 +953,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>武进不锈</t>
+          <t>八一钢铁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sh603878</t>
+          <t>sh600581</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1094,23 +967,23 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.68</v>
+        <v>4.29</v>
       </c>
       <c r="G2" t="n">
-        <v>7.05</v>
+        <v>4.27</v>
       </c>
       <c r="H2" t="n">
-        <v>18900</v>
+        <v>25800</v>
       </c>
       <c r="I2" t="n">
-        <v>133245</v>
+        <v>110166</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1000,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鸿路钢构</t>
+          <t>武进不锈</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sz002541</t>
+          <t>sh603878</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1141,70 +1014,23 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17.9</v>
+        <v>5.68</v>
       </c>
       <c r="G3" t="n">
-        <v>18.5</v>
+        <v>6.82</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="I3" t="n">
-        <v>110520</v>
+        <v>128898</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>常宝股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sz002478</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>109817</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,6 +428,347 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>持仓量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>今日盈亏</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>累计盈亏</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>今日收益率</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>累计收益率</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sh600581</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>八一钢铁</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25800</v>
+      </c>
+      <c r="G2" t="n">
+        <v>119454</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2321.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8772</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.906771449218237</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.925407925407925</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sh603878</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>武进不锈</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>129654</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-378</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.2906976744186047</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sz000426</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>129350</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13800</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.650294695481336</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.94288186932064</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sh603507</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G5" t="n">
+        <v>111006</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1008</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9163802978235969</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9163802978235969</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sh600362</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G6" t="n">
+        <v>119652</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1131</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4680</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.9363900548918308</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.07055630936228</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -652,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -869,7 +1211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Robot_portfolio_today.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="有色金属_持仓信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="钢铁_持仓信息" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,6 +429,219 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>成本价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>持仓量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>市值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>今日盈亏</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>累计盈亏</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>今日收益率</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>累计收益率</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sh601212</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>白银有色</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>111926</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1172</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.036269430051814</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sz000426</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>69.44</v>
+      </c>
+      <c r="H3" t="n">
+        <v>126150</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4850.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10600</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-3.702297709923664</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.173517957594116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sz000831</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>53.77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="H4" t="n">
+        <v>119900</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1606</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.35763436860703</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.35763436860703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +1208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1211,7 +1425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
